--- a/data/physicochemical.xlsx
+++ b/data/physicochemical.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2017\StreamStability-IrMaria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53065CC-EA50-423C-B287-4A595AE3718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF7656-B8AF-486A-9A1B-D09C6CB310ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E6E5122-8AD2-497B-BDEC-B2DE741540E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2E6E5122-8AD2-497B-BDEC-B2DE741540E3}"/>
   </bookViews>
   <sheets>
     <sheet name="temperature" sheetId="1" r:id="rId1"/>
+    <sheet name="pH" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="8">
   <si>
     <t>stream</t>
   </si>
@@ -51,13 +52,22 @@
   <si>
     <t>date</t>
   </si>
+  <si>
+    <t>pH.</t>
+  </si>
+  <si>
+    <t>QPA</t>
+  </si>
+  <si>
+    <t>QPB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,8 +107,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA5B47-BA8C-4B4C-A90E-26946BC3E86F}">
   <dimension ref="A1:C395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4742,4 +4752,4338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749190A7-BC8C-410B-B3EC-DF02BACA1CE7}">
+  <dimension ref="A1:C395"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A189" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>42738</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>42745</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>42752</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>42759</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>42773</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>42787</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>42801</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>42808</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>42815</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>42822</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>42829</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>42836</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>42843</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>42850</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>42857</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>42864</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>42871</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>42885</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>42899</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>42906</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>42919</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>42927</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>42934</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>42941</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>42969</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>42983</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>42990</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>43368</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>43417</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>43424</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43431</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43438</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43459</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43467</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>43522</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>43536</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>43543</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>43550</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>43557</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>43564</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>43578</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>43592</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>43606</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>43613</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>43620</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>43627</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>42738</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>42745</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>42752</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>42759</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>42773</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>42787</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>42801</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>42808</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>42815</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>42822</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>42829</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>42836</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>42843</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>42850</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>42857</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>42864</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>42871</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>42885</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>42899</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>42906</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>42919</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>42927</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>42934</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>42941</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>42969</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>42983</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>42990</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>43011</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>43368</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>43417</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>43424</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>43431</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>43438</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>43459</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>43467</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>43522</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>43536</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>43543</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>43550</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>43557</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>43564</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>43578</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>43592</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>43606</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>43613</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>43620</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>43627</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>7.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>